--- a/Team-Data/2008-09/2-7-2008-09.xlsx
+++ b/Team-Data/2008-09/2-7-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
         <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58</v>
+        <v>0.592</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,7 +751,7 @@
         <v>35.8</v>
       </c>
       <c r="J2" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.456</v>
@@ -693,40 +760,40 @@
         <v>7.8</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P2" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q2" t="n">
         <v>0.74</v>
       </c>
       <c r="R2" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
         <v>21.1</v>
       </c>
       <c r="V2" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
@@ -738,31 +805,31 @@
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10</v>
       </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>13</v>
@@ -771,10 +838,10 @@
         <v>6</v>
       </c>
       <c r="AM2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -801,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -813,13 +880,13 @@
         <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0.804</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.3</v>
@@ -872,34 +939,34 @@
         <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,25 +975,25 @@
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,10 +1041,10 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>28</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,22 +1205,22 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -1215,118 +1282,118 @@
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.376</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
         <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>9</v>
@@ -1335,13 +1402,13 @@
         <v>8</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>19</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.83</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,52 +1512,52 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,19 +1569,19 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,19 +1593,19 @@
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H7" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>83.09999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
@@ -1603,10 +1670,10 @@
         <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O7" t="n">
         <v>17.7</v>
@@ -1618,46 +1685,46 @@
         <v>0.819</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
         <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AC7" t="n">
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1699,13 +1766,13 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1714,13 +1781,13 @@
         <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -1758,85 +1825,85 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="J8" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O8" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41</v>
+        <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA8" t="n">
         <v>23.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104</v>
+        <v>104.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,22 +1918,22 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
       </c>
       <c r="AN8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,16 +1945,16 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>26</v>
@@ -1902,16 +1969,16 @@
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J9" t="n">
-        <v>78.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.347</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.747</v>
+        <v>0.742</v>
       </c>
       <c r="R9" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T9" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V9" t="n">
         <v>12</v>
@@ -2003,64 +2070,64 @@
         <v>4.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>20.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AD9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
         <v>24</v>
       </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS9" t="n">
         <v>17</v>
@@ -2069,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="AU9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2078,19 +2145,19 @@
         <v>27</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2245,10 +2312,10 @@
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>16</v>
@@ -2266,7 +2333,7 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M11" t="n">
         <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O11" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.806</v>
+        <v>0.805</v>
       </c>
       <c r="R11" t="n">
         <v>10.7</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V11" t="n">
         <v>13.9</v>
@@ -2364,25 +2431,25 @@
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,10 +2461,10 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
@@ -2412,16 +2479,16 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
         <v>17</v>
@@ -2433,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2445,13 +2512,13 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BB11" t="n">
         <v>19</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2585,28 +2652,28 @@
         <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2630,13 +2697,13 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>0.235</v>
+        <v>0.22</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J13" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M13" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T13" t="n">
         <v>40.6</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,25 +2798,25 @@
         <v>6.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
         <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.2</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF13" t="n">
         <v>28</v>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2776,13 +2843,13 @@
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>22</v>
@@ -2797,31 +2864,31 @@
         <v>20</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
@@ -2877,31 +2944,31 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2913,34 +2980,34 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2973,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.28</v>
+        <v>0.265</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J15" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
         <v>4.7</v>
@@ -3062,13 +3129,13 @@
         <v>13.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q15" t="n">
         <v>0.753</v>
@@ -3077,10 +3144,10 @@
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="T15" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="U15" t="n">
         <v>16.7</v>
@@ -3092,25 +3159,25 @@
         <v>7.7</v>
       </c>
       <c r="X15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z15" t="n">
         <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.5</v>
+        <v>93.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,22 +3198,22 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
@@ -3155,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3164,13 +3231,13 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW15" t="n">
         <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY15" t="n">
         <v>19</v>
@@ -3179,10 +3246,10 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.531</v>
+        <v>0.542</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
         <v>0.448</v>
       </c>
       <c r="L16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.359</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
@@ -3262,58 +3329,58 @@
         <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
         <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,7 +3389,7 @@
         <v>11</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3340,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
@@ -3352,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY16" t="n">
         <v>6</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -3408,16 +3475,16 @@
         <v>0.462</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
@@ -3426,31 +3493,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R17" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,31 +3529,31 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3507,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>8</v>
@@ -3519,19 +3586,19 @@
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>15</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3540,13 +3607,13 @@
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,46 +3663,46 @@
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M18" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P18" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3644,25 +3711,25 @@
         <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.7</v>
+        <v>-3.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3671,13 +3738,13 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>22</v>
@@ -3686,28 +3753,28 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AP18" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.471</v>
+        <v>0.46</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
@@ -3781,79 +3848,79 @@
         <v>80.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.776</v>
       </c>
       <c r="R19" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>41</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V19" t="n">
         <v>13.6</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3868,37 +3935,37 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>10</v>
       </c>
-      <c r="AP19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>11</v>
-      </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3907,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -4023,13 +4090,13 @@
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4050,10 +4117,10 @@
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4074,13 +4141,13 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
@@ -4089,7 +4156,7 @@
         <v>13</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4223,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4253,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
@@ -4268,13 +4335,13 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4396,7 +4463,7 @@
         <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4417,13 +4484,13 @@
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>5</v>
@@ -4435,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4444,7 +4511,7 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
@@ -4456,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="BB22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.458</v>
@@ -4700,31 +4767,31 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P24" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
         <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U24" t="n">
         <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4733,22 +4800,22 @@
         <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
         <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4760,7 +4827,7 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4808,16 +4875,16 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>8</v>
       </c>
-      <c r="AY24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>7</v>
-      </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>1.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4987,13 +5054,13 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>12</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.612</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.462</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O26" t="n">
         <v>19.1</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="O26" t="n">
-        <v>19.3</v>
-      </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5094,46 +5161,46 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF26" t="n">
         <v>8</v>
       </c>
-      <c r="AF26" t="n">
-        <v>7</v>
-      </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,13 +5212,13 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,7 +5227,7 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>23</v>
@@ -5172,22 +5239,22 @@
         <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
         <v>29</v>
@@ -5306,10 +5373,10 @@
         <v>29</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>10</v>
@@ -5330,22 +5397,22 @@
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT27" t="n">
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5363,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5506,7 +5573,7 @@
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
         <v>78.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="L29" t="n">
         <v>6.1</v>
       </c>
       <c r="M29" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.377</v>
       </c>
       <c r="O29" t="n">
         <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="R29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T29" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="U29" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
         <v>6.3</v>
@@ -5652,10 +5719,10 @@
         <v>20.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -5670,28 +5737,28 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5718,7 +5785,7 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5730,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="BB29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>3</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>14</v>
@@ -5852,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,10 +5952,10 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5903,7 +5970,7 @@
         <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6034,10 +6101,10 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6070,16 +6137,16 @@
         <v>29</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>27</v>
@@ -6088,16 +6155,16 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-7-2008-09</t>
+          <t>2009-02-07</t>
         </is>
       </c>
     </row>
